--- a/logdata.xlsx
+++ b/logdata.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\esameter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="51">
   <si>
     <t>92</t>
   </si>
@@ -103,6 +103,90 @@
   <si>
     <t>104</t>
   </si>
+  <si>
+    <t>50005</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>50019</t>
+  </si>
 </sst>
 </file>
 
@@ -122,12 +206,24 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -142,9 +238,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -242,7 +340,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,7 +375,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -465,8 +563,8 @@
   <dimension ref="A1:J270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E134" sqref="E134:J136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4643,644 +4741,644 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
-        <v>55019</v>
-      </c>
-      <c r="B131" s="1" t="s">
+    <row r="131" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C131" s="1">
-        <v>6</v>
-      </c>
-      <c r="D131" s="1">
+      <c r="C131" s="3">
+        <v>7</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" s="3">
+        <v>7</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="3">
+        <v>7</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" s="2">
+        <v>7</v>
+      </c>
+      <c r="D134" s="2">
+        <v>9</v>
+      </c>
+      <c r="E134" s="2">
+        <v>0</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E131" s="1">
-        <v>3</v>
-      </c>
-      <c r="F131" s="1">
-        <v>4</v>
-      </c>
-      <c r="G131" s="1">
+      <c r="G134" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H134" s="2">
+        <v>0</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" s="2">
+        <v>7</v>
+      </c>
+      <c r="D135" s="2">
+        <v>10</v>
+      </c>
+      <c r="E135" s="2">
+        <v>5</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" s="2">
+        <v>7</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F139" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H131" s="1">
-        <v>3</v>
-      </c>
-      <c r="I131" s="1">
-        <v>4</v>
-      </c>
-      <c r="J131" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
-        <v>55019</v>
-      </c>
-      <c r="B132" s="1" t="s">
+      <c r="G139" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C132" s="1">
-        <v>6</v>
-      </c>
-      <c r="D132" s="1">
-        <v>26</v>
-      </c>
-      <c r="E132" s="1">
-        <v>2</v>
-      </c>
-      <c r="F132" s="1">
-        <v>41</v>
-      </c>
-      <c r="G132" s="1">
+      <c r="C140" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" s="3">
+        <v>7</v>
+      </c>
+      <c r="D141" s="3">
+        <v>13</v>
+      </c>
+      <c r="E141" s="3">
+        <v>0</v>
+      </c>
+      <c r="F141" s="3">
+        <v>31</v>
+      </c>
+      <c r="G141" s="3">
+        <v>24</v>
+      </c>
+      <c r="H141" s="3">
+        <v>0</v>
+      </c>
+      <c r="I141" s="3">
+        <v>31</v>
+      </c>
+      <c r="J141" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" s="3">
+        <v>7</v>
+      </c>
+      <c r="D142" s="3">
+        <v>13</v>
+      </c>
+      <c r="E142" s="3">
+        <v>1</v>
+      </c>
+      <c r="F142" s="3">
+        <v>1</v>
+      </c>
+      <c r="G142" s="3">
+        <v>44</v>
+      </c>
+      <c r="H142" s="3">
+        <v>1</v>
+      </c>
+      <c r="I142" s="3">
+        <v>1</v>
+      </c>
+      <c r="J142" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" s="3">
+        <v>7</v>
+      </c>
+      <c r="D143" s="3">
+        <v>14</v>
+      </c>
+      <c r="E143" s="3">
+        <v>12</v>
+      </c>
+      <c r="F143" s="3">
+        <v>51</v>
+      </c>
+      <c r="G143" s="3">
+        <v>16</v>
+      </c>
+      <c r="H143" s="3">
+        <v>12</v>
+      </c>
+      <c r="I143" s="3">
+        <v>51</v>
+      </c>
+      <c r="J143" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" s="3">
+        <v>7</v>
+      </c>
+      <c r="D144" s="3">
+        <v>14</v>
+      </c>
+      <c r="E144" s="3">
+        <v>13</v>
+      </c>
+      <c r="F144" s="3">
+        <v>1</v>
+      </c>
+      <c r="G144" s="3">
+        <v>20</v>
+      </c>
+      <c r="H144" s="3">
+        <v>13</v>
+      </c>
+      <c r="I144" s="3">
+        <v>1</v>
+      </c>
+      <c r="J144" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" s="3">
+        <v>7</v>
+      </c>
+      <c r="D145" s="3">
+        <v>14</v>
+      </c>
+      <c r="E145" s="3">
+        <v>13</v>
+      </c>
+      <c r="F145" s="3">
+        <v>31</v>
+      </c>
+      <c r="G145" s="3">
+        <v>21</v>
+      </c>
+      <c r="H145" s="3">
+        <v>13</v>
+      </c>
+      <c r="I145" s="3">
+        <v>31</v>
+      </c>
+      <c r="J145" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" s="3">
+        <v>7</v>
+      </c>
+      <c r="D146" s="3">
+        <v>16</v>
+      </c>
+      <c r="E146" s="3">
+        <v>12</v>
+      </c>
+      <c r="F146" s="3">
+        <v>31</v>
+      </c>
+      <c r="G146" s="3">
+        <v>47</v>
+      </c>
+      <c r="H146" s="3">
+        <v>12</v>
+      </c>
+      <c r="I146" s="3">
+        <v>31</v>
+      </c>
+      <c r="J146" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" s="3">
+        <v>7</v>
+      </c>
+      <c r="D147" s="3">
+        <v>16</v>
+      </c>
+      <c r="E147" s="3">
+        <v>13</v>
+      </c>
+      <c r="F147" s="3">
+        <v>1</v>
+      </c>
+      <c r="G147" s="3">
+        <v>14</v>
+      </c>
+      <c r="H147" s="3">
+        <v>13</v>
+      </c>
+      <c r="I147" s="3">
+        <v>1</v>
+      </c>
+      <c r="J147" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" s="3">
+        <v>7</v>
+      </c>
+      <c r="D148" s="3">
+        <v>16</v>
+      </c>
+      <c r="E148" s="3">
+        <v>13</v>
+      </c>
+      <c r="F148" s="3">
+        <v>31</v>
+      </c>
+      <c r="G148" s="3">
+        <v>18</v>
+      </c>
+      <c r="H148" s="3">
+        <v>13</v>
+      </c>
+      <c r="I148" s="3">
+        <v>31</v>
+      </c>
+      <c r="J148" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" s="3">
+        <v>7</v>
+      </c>
+      <c r="D149" s="3">
+        <v>17</v>
+      </c>
+      <c r="E149" s="3">
+        <v>0</v>
+      </c>
+      <c r="F149" s="3">
+        <v>1</v>
+      </c>
+      <c r="G149" s="3">
+        <v>28</v>
+      </c>
+      <c r="H149" s="3">
+        <v>0</v>
+      </c>
+      <c r="I149" s="3">
+        <v>1</v>
+      </c>
+      <c r="J149" s="3">
         <v>27</v>
       </c>
-      <c r="H132" s="1">
-        <v>2</v>
-      </c>
-      <c r="I132" s="1">
-        <v>41</v>
-      </c>
-      <c r="J132" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
-        <v>55019</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133" s="1">
-        <v>7</v>
-      </c>
-      <c r="D133" s="1">
-        <v>1</v>
-      </c>
-      <c r="E133" s="1">
-        <v>0</v>
-      </c>
-      <c r="F133" s="1">
-        <v>4</v>
-      </c>
-      <c r="G133" s="1">
-        <v>42</v>
-      </c>
-      <c r="H133" s="1">
-        <v>0</v>
-      </c>
-      <c r="I133" s="1">
-        <v>4</v>
-      </c>
-      <c r="J133" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
-        <v>55019</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134" s="1">
-        <v>7</v>
-      </c>
-      <c r="D134" s="1">
-        <v>3</v>
-      </c>
-      <c r="E134" s="1">
-        <v>0</v>
-      </c>
-      <c r="F134" s="1">
-        <v>47</v>
-      </c>
-      <c r="G134" s="1">
-        <v>21</v>
-      </c>
-      <c r="H134" s="1">
-        <v>0</v>
-      </c>
-      <c r="I134" s="1">
-        <v>47</v>
-      </c>
-      <c r="J134" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
-        <v>55019</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135" s="1">
-        <v>7</v>
-      </c>
-      <c r="D135" s="1">
-        <v>4</v>
-      </c>
-      <c r="E135" s="1">
-        <v>1</v>
-      </c>
-      <c r="F135" s="1">
-        <v>23</v>
-      </c>
-      <c r="G135" s="1">
-        <v>42</v>
-      </c>
-      <c r="H135" s="1">
-        <v>1</v>
-      </c>
-      <c r="I135" s="1">
-        <v>23</v>
-      </c>
-      <c r="J135" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
-        <v>55019</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C136" s="1">
-        <v>7</v>
-      </c>
-      <c r="D136" s="1">
-        <v>5</v>
-      </c>
-      <c r="E136" s="1">
-        <v>1</v>
-      </c>
-      <c r="F136" s="1">
-        <v>29</v>
-      </c>
-      <c r="G136" s="1">
-        <v>5</v>
-      </c>
-      <c r="H136" s="1">
-        <v>1</v>
-      </c>
-      <c r="I136" s="1">
-        <v>29</v>
-      </c>
-      <c r="J136" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
-        <v>55019</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137" s="1">
-        <v>7</v>
-      </c>
-      <c r="D137" s="1">
-        <v>7</v>
-      </c>
-      <c r="E137" s="1">
-        <v>6</v>
-      </c>
-      <c r="F137" s="1">
-        <v>43</v>
-      </c>
-      <c r="G137" s="1">
-        <v>28</v>
-      </c>
-      <c r="H137" s="1">
-        <v>6</v>
-      </c>
-      <c r="I137" s="1">
-        <v>43</v>
-      </c>
-      <c r="J137" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
-        <v>55019</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C138" s="1">
-        <v>7</v>
-      </c>
-      <c r="D138" s="1">
-        <v>9</v>
-      </c>
-      <c r="E138" s="1">
-        <v>0</v>
-      </c>
-      <c r="F138" s="1">
-        <v>10</v>
-      </c>
-      <c r="G138" s="1">
-        <v>23</v>
-      </c>
-      <c r="H138" s="1">
-        <v>0</v>
-      </c>
-      <c r="I138" s="1">
-        <v>10</v>
-      </c>
-      <c r="J138" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
-        <v>55019</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139" s="1">
-        <v>7</v>
-      </c>
-      <c r="D139" s="1">
-        <v>10</v>
-      </c>
-      <c r="E139" s="1">
-        <v>5</v>
-      </c>
-      <c r="F139" s="1">
-        <v>57</v>
-      </c>
-      <c r="G139" s="1">
-        <v>19</v>
-      </c>
-      <c r="H139" s="1">
-        <v>5</v>
-      </c>
-      <c r="I139" s="1">
-        <v>57</v>
-      </c>
-      <c r="J139" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
-        <v>55019</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C140" s="1">
-        <v>7</v>
-      </c>
-      <c r="D140" s="1">
-        <v>12</v>
-      </c>
-      <c r="E140" s="1">
-        <v>2</v>
-      </c>
-      <c r="F140" s="1">
-        <v>25</v>
-      </c>
-      <c r="G140" s="1">
-        <v>37</v>
-      </c>
-      <c r="H140" s="1">
-        <v>2</v>
-      </c>
-      <c r="I140" s="1">
-        <v>25</v>
-      </c>
-      <c r="J140" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
-        <v>55019</v>
-      </c>
-      <c r="B141" s="1" t="s">
+    </row>
+    <row r="150" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C141" s="1">
-        <v>7</v>
-      </c>
-      <c r="D141" s="1">
-        <v>1</v>
-      </c>
-      <c r="E141" s="1">
-        <v>6</v>
-      </c>
-      <c r="F141" s="1">
-        <v>52</v>
-      </c>
-      <c r="G141" s="1">
-        <v>6</v>
-      </c>
-      <c r="H141" s="1">
-        <v>6</v>
-      </c>
-      <c r="I141" s="1">
-        <v>52</v>
-      </c>
-      <c r="J141" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
-        <v>55019</v>
-      </c>
-      <c r="B142" s="1" t="s">
+      <c r="C150" s="3">
+        <v>7</v>
+      </c>
+      <c r="D150" s="3">
         <v>13</v>
       </c>
-      <c r="C142" s="1">
-        <v>7</v>
-      </c>
-      <c r="D142" s="1">
-        <v>2</v>
-      </c>
-      <c r="E142" s="1">
-        <v>2</v>
-      </c>
-      <c r="F142" s="1">
-        <v>60</v>
-      </c>
-      <c r="G142" s="1">
-        <v>10</v>
-      </c>
-      <c r="H142" s="1">
-        <v>2</v>
-      </c>
-      <c r="I142" s="1">
-        <v>60</v>
-      </c>
-      <c r="J142" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
-        <v>55019</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C143" s="1">
-        <v>7</v>
-      </c>
-      <c r="D143" s="1">
-        <v>3</v>
-      </c>
-      <c r="E143" s="1">
-        <v>1</v>
-      </c>
-      <c r="F143" s="1">
-        <v>11</v>
-      </c>
-      <c r="G143" s="1">
-        <v>52</v>
-      </c>
-      <c r="H143" s="1">
-        <v>1</v>
-      </c>
-      <c r="I143" s="1">
-        <v>11</v>
-      </c>
-      <c r="J143" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
-        <v>55019</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C144" s="1">
-        <v>7</v>
-      </c>
-      <c r="D144" s="1">
-        <v>5</v>
-      </c>
-      <c r="E144" s="1">
-        <v>5</v>
-      </c>
-      <c r="F144" s="1">
-        <v>1</v>
-      </c>
-      <c r="G144" s="1">
-        <v>30</v>
-      </c>
-      <c r="H144" s="1">
-        <v>5</v>
-      </c>
-      <c r="I144" s="1">
-        <v>1</v>
-      </c>
-      <c r="J144" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
-        <v>55019</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C145" s="1">
-        <v>7</v>
-      </c>
-      <c r="D145" s="1">
-        <v>6</v>
-      </c>
-      <c r="E145" s="1">
-        <v>4</v>
-      </c>
-      <c r="F145" s="1">
-        <v>44</v>
-      </c>
-      <c r="G145" s="1">
-        <v>52</v>
-      </c>
-      <c r="H145" s="1">
-        <v>4</v>
-      </c>
-      <c r="I145" s="1">
-        <v>44</v>
-      </c>
-      <c r="J145" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A146" s="1">
-        <v>55019</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C146" s="1">
-        <v>7</v>
-      </c>
-      <c r="D146" s="1">
-        <v>7</v>
-      </c>
-      <c r="E146" s="1">
-        <v>2</v>
-      </c>
-      <c r="F146" s="1">
-        <v>17</v>
-      </c>
-      <c r="G146" s="1">
-        <v>16</v>
-      </c>
-      <c r="H146" s="1">
-        <v>2</v>
-      </c>
-      <c r="I146" s="1">
-        <v>17</v>
-      </c>
-      <c r="J146" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
-        <v>55019</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C147" s="1">
-        <v>7</v>
-      </c>
-      <c r="D147" s="1">
-        <v>9</v>
-      </c>
-      <c r="E147" s="1">
-        <v>2</v>
-      </c>
-      <c r="F147" s="1">
-        <v>58</v>
-      </c>
-      <c r="G147" s="1">
-        <v>7</v>
-      </c>
-      <c r="H147" s="1">
-        <v>2</v>
-      </c>
-      <c r="I147" s="1">
-        <v>58</v>
-      </c>
-      <c r="J147" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A148" s="1">
-        <v>55019</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C148" s="1">
-        <v>7</v>
-      </c>
-      <c r="D148" s="1">
-        <v>11</v>
-      </c>
-      <c r="E148" s="1">
-        <v>3</v>
-      </c>
-      <c r="F148" s="1">
-        <v>46</v>
-      </c>
-      <c r="G148" s="1">
-        <v>38</v>
-      </c>
-      <c r="H148" s="1">
-        <v>3</v>
-      </c>
-      <c r="I148" s="1">
-        <v>46</v>
-      </c>
-      <c r="J148" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
-        <v>55019</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C149" s="1">
-        <v>7</v>
-      </c>
-      <c r="D149" s="1">
-        <v>12</v>
-      </c>
-      <c r="E149" s="1">
-        <v>4</v>
-      </c>
-      <c r="F149" s="1">
-        <v>25</v>
-      </c>
-      <c r="G149" s="1">
-        <v>9</v>
-      </c>
-      <c r="H149" s="1">
-        <v>4</v>
-      </c>
-      <c r="I149" s="1">
-        <v>25</v>
-      </c>
-      <c r="J149" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A150" s="1">
-        <v>55019</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C150" s="1">
-        <v>7</v>
-      </c>
-      <c r="D150" s="1">
-        <v>14</v>
-      </c>
-      <c r="E150" s="1">
-        <v>0</v>
-      </c>
-      <c r="F150" s="1">
-        <v>33</v>
-      </c>
-      <c r="G150" s="1">
-        <v>24</v>
-      </c>
-      <c r="H150" s="1">
-        <v>0</v>
-      </c>
-      <c r="I150" s="1">
-        <v>33</v>
-      </c>
-      <c r="J150" s="1">
-        <v>25</v>
+      <c r="E150" s="3">
+        <v>0</v>
+      </c>
+      <c r="F150" s="3">
+        <v>1</v>
+      </c>
+      <c r="G150" s="3">
+        <v>35</v>
+      </c>
+      <c r="H150" s="3">
+        <v>0</v>
+      </c>
+      <c r="I150" s="3">
+        <v>1</v>
+      </c>
+      <c r="J150" s="3">
+        <v>35</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
@@ -6244,8 +6342,8 @@
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A181" s="1">
-        <v>55005</v>
+      <c r="A181" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>16</v>
@@ -6276,8 +6374,8 @@
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A182" s="1">
-        <v>55005</v>
+      <c r="A182" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>16</v>
@@ -6308,8 +6406,8 @@
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A183" s="1">
-        <v>55005</v>
+      <c r="A183" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>16</v>
@@ -6340,8 +6438,8 @@
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A184" s="1">
-        <v>55005</v>
+      <c r="A184" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>16</v>
@@ -6372,8 +6470,8 @@
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A185" s="1">
-        <v>55005</v>
+      <c r="A185" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>16</v>
@@ -6404,8 +6502,8 @@
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A186" s="1">
-        <v>55005</v>
+      <c r="A186" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>16</v>
@@ -6436,8 +6534,8 @@
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A187" s="1">
-        <v>55005</v>
+      <c r="A187" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>16</v>
@@ -6468,8 +6566,8 @@
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A188" s="1">
-        <v>55005</v>
+      <c r="A188" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>16</v>
@@ -6500,8 +6598,8 @@
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
-        <v>55005</v>
+      <c r="A189" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>16</v>
@@ -6532,8 +6630,8 @@
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
-        <v>55005</v>
+      <c r="A190" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>16</v>
